--- a/settings/files/New_Car_Pricing_From_Manufacture.xlsx
+++ b/settings/files/New_Car_Pricing_From_Manufacture.xlsx
@@ -10,12 +10,11 @@
     <sheet name="new car pricing FROM MANUFACTOR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="179">
   <si>
     <t>Year</t>
   </si>
@@ -44,513 +43,207 @@
     <t>AWD 5D 3.5L V6 EX-L 9-Speed Automatic Transmission</t>
   </si>
   <si>
-    <t>AWD 5D 3.5L V6 EX-L 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF8H6NKNW</t>
   </si>
   <si>
-    <t>AWD 5D 3.5L V6 TrailSport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 3.5L V6 TrailSport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF8H0NKNW</t>
   </si>
   <si>
-    <t>AWD 5D 3.5L V6 Elite 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 3.5L V6 Elite 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>Passport  Package</t>
   </si>
   <si>
     <t>HPD Bronze Pkg, TRAILSP</t>
   </si>
   <si>
-    <t>Fender Flares, 18" HPD Alloy Wheels, HPD Lower Door Trim, and HPD Decals</t>
-  </si>
-  <si>
     <t>HPD Bronze Pkg</t>
   </si>
   <si>
-    <t>Fender Flares, 20" HPD Alloy Wheels , HPD Lower Door Trim, and HPD Decals</t>
-  </si>
-  <si>
     <t>HPD Black Pkg. TRAILSP</t>
   </si>
   <si>
-    <t>Fender Flares, 18" HPD Alloy Wheels , Black Wheel Lug Nuts, HPD Lower Door Trim, and HPD Decals</t>
-  </si>
-  <si>
     <t>HPD Black Pkg</t>
   </si>
   <si>
-    <t>Fender Flares, 20" HPD Alloy Wheels, Black Wheel Lug Nuts, HPD Lower Door Trim, and HPD Decals</t>
-  </si>
-  <si>
     <t>Utility Pkg, EX-L</t>
   </si>
   <si>
-    <t>Roof Rails, Crossbars, and Trailer Hitch</t>
-  </si>
-  <si>
     <t>Utility Pkg, TRAILSP</t>
   </si>
   <si>
-    <t>Crossbars, and Trailer Hitch</t>
-  </si>
-  <si>
     <t>Utility Pkg, ELITE</t>
   </si>
   <si>
-    <t>Crossbars, Trailer Hitch, and Tailgate Kick Sensor Adaptor</t>
-  </si>
-  <si>
     <t>Function Pkg</t>
   </si>
   <si>
-    <t>Cargo Net, Cargo Cover, and First Aid Kit</t>
-  </si>
-  <si>
     <t>Civic SI</t>
   </si>
   <si>
     <t>FE1E5NJXW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 6-Speed Manual Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 6-Speed Manual Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FE1E5NJW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 6-Speed Manual Transmission w/Summer Tires</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 6-Speed Manual Transmission w/Summer Tires &amp; Premium Color</t>
-  </si>
-  <si>
     <t>Accord</t>
   </si>
   <si>
     <t>CV1F1NEW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV1F3NEW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 Sport Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV1F4NENW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 Sport SE Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 Sport SE Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV1F5NJNW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV2F3NJW</t>
   </si>
   <si>
-    <t>4D 2.0T L4 Sport 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0T L4 Sport 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV2F9NKNW</t>
   </si>
   <si>
-    <t>4D 2.0T L4 Touring 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0T L4 Touring 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>Accord Hybrid</t>
   </si>
   <si>
     <t>CV3F1NEW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 Hybrid Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 Hybrid Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV3F2NEW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 Sport Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV3F5NJNW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV3F9NKNW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pilot </t>
   </si>
   <si>
     <t>YF6H3NEW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 Sport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 Sport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H5NJNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 EX-L 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 EX-L 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H2NJNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 SE 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 SE 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H8NKNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 TrailSport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 TrailSport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H9NKNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 Touring 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 Touring 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H6NKNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 Touring - 7 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 Touring - 7 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H0NKNW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 Elite 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 Elite 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H7NKXW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 Black 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 Black 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ridgeline </t>
   </si>
   <si>
     <t>YK3F1NEW</t>
   </si>
   <si>
-    <t>AWD 4D 3.5L V6 Sport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 4D 3.5L V6 Sport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YK3F5NJNW</t>
   </si>
   <si>
-    <t>AWD 4D 3.5L V6 RTL 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 4D 3.5L V6 RTL 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YK3F7NKNW</t>
   </si>
   <si>
-    <t>AWD 4D 3.5L V6 RTL-E 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 4D 3.5L V6 RTL-E 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YK3F8NKNW</t>
   </si>
   <si>
-    <t>AWD 4D 3.5L V6 Black 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 4D 3.5L V6 Black 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>Ridgeline Packages</t>
   </si>
   <si>
     <t>Function Package</t>
   </si>
   <si>
-    <t>Bed Cargo Net, Trunk Cargo Net, Trunk Cargo Dividers, First Aid Kit</t>
-  </si>
-  <si>
     <t>Function+ Package</t>
   </si>
   <si>
-    <t>Hard Tonneau Cover,Bed Cargo Net, Trunk Cargo Net, Trunk Cargo Dividers, First Aid Kit</t>
-  </si>
-  <si>
     <t>Utility Package</t>
   </si>
   <si>
-    <t>Running Boards, Roof Rails, Crossbars</t>
-  </si>
-  <si>
     <t>HPD Bronze Package</t>
   </si>
   <si>
-    <t>Fender Flares, 18" HPD Alloy Wheels, Grille, HPD Decals and Emblem</t>
-  </si>
-  <si>
     <t>HPD Black Package</t>
   </si>
   <si>
-    <t>Fender Flares, 18" HPD Alloy Wheels, Black Lug Nuts, Grille, HPD Decals and Emblem</t>
-  </si>
-  <si>
     <t>CIVIC HATCH</t>
   </si>
   <si>
     <t>FL2H5NEW</t>
   </si>
   <si>
-    <t>5D 2.0 L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>5D 2.0 L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FL2G8NEW</t>
   </si>
   <si>
-    <t>5D 2.0 L4 Sport 6-Speed Manual Transmission</t>
-  </si>
-  <si>
-    <t>5D 2.0 L4 Sport 6-Speed Manual Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FL2H8NEW</t>
   </si>
   <si>
-    <t>5D 2.0 L4 Sport Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>5D 2.0 L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FL1H7NJNW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FL1G8NKNW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 Sport Touring 6-Speed Manual Transmission</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 Sport Touring 6-Speed Manual Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FL1H8NKNW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 Sport Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 Sport Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CR-V</t>
   </si>
   <si>
     <t>RW1H2NEW</t>
   </si>
   <si>
-    <t>2WD 5D 1.5T L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.5T L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW1H7NEW</t>
   </si>
   <si>
-    <t>2WD 5D 1.5T L4 SE Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.5T L4 SE Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW1H5NJW</t>
   </si>
   <si>
-    <t>2WD 5D 1.5T L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.5T L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW1H8NJNW</t>
   </si>
   <si>
-    <t>2WD 5D 1.5T L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.5T L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW2H2NEW</t>
   </si>
   <si>
-    <t>AWD 5D 1.5T L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.5T L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW2H7NEW</t>
   </si>
   <si>
-    <t>AWD 5D 1.5T L4 SE Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.5T L4 SE Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW2H5NJW</t>
   </si>
   <si>
-    <t>AWD 5D 1.5T L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.5T L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW2H8NJNW</t>
   </si>
   <si>
-    <t>AWD 5D 1.5T L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.5T L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RW2H9NKNW</t>
   </si>
   <si>
-    <t>AWD 5D 1.5T L4 Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.5T L4 Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CR-V Hybrid</t>
   </si>
   <si>
     <t>RT6H5NJW</t>
   </si>
   <si>
-    <t>AWD 5D 2.0 Hybrid EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 2.0 Hybrid EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RT6H8NJNW</t>
   </si>
   <si>
-    <t>AWD 5D 2.0 Hybrid EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 2.0 Hybrid EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RT6H9NKNW</t>
   </si>
   <si>
-    <t>AWD 5D 2.0 Hybrid Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 2.0 Hybrid Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t xml:space="preserve">PILOT </t>
   </si>
   <si>
@@ -560,141 +253,57 @@
     <t>RU6H3NEW</t>
   </si>
   <si>
-    <t>AWD 5D 1.8 L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.8 L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU6H1NEW</t>
   </si>
   <si>
-    <t>AWD 5D 1.8 L4 Sport Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.8 L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU6H5NJW</t>
   </si>
   <si>
-    <t>AWD 5D 1.8 L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.8 L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU6H7NJNW</t>
   </si>
   <si>
-    <t>AWD 5D 1.8 L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.8 L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CIVIC SEDAN</t>
   </si>
   <si>
     <t>FE2F2NEW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FE2F5NEW</t>
   </si>
   <si>
     <t>FE1F7NJW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FE1F9NKNW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5T L4 Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>INSIGHT</t>
   </si>
   <si>
     <t>ZE4F5NEW</t>
   </si>
   <si>
-    <t>4D 1.5 L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5 L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>ZE4F9NKNW</t>
   </si>
   <si>
-    <t>4D 1.5 L4 Touring Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5 L4 Touring Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>ODYSSEY</t>
   </si>
   <si>
     <t>RL6H2NEW</t>
   </si>
   <si>
-    <t>5D 3.5 V6 LX 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>5D 3.5 V6 LX 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RL6H5NEXW</t>
   </si>
   <si>
-    <t>5D 3.5 V6 EX 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>5D 3.5 V6 EX 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RL6H7NJXW</t>
   </si>
   <si>
-    <t>5D 3.5 V6 EX-L 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>5D 3.5 V6 EX-L 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RL6H8NKXW</t>
   </si>
   <si>
-    <t>5D 3.5 V6 Touring 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>5D 3.5 V6 Touring 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RL6H9NKXW</t>
   </si>
   <si>
-    <t>5D 3.5 V6 Elite 10-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>5D 3.5 V6 Elite 10-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RIDGELINE</t>
   </si>
   <si>
@@ -743,9 +352,6 @@
     <t>FC2F6MEW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 LX Continuously Variable Transmission w/ Premium Color</t>
-  </si>
-  <si>
     <t>FC2F8MEW</t>
   </si>
   <si>
@@ -764,24 +370,15 @@
     <t>CV1F1MEW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 LX Continuously Variable Transmission w/ Premium Color</t>
-  </si>
-  <si>
     <t>CV1F3MEW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 Sport Continuously Variable Transmission w/ Premium Color</t>
-  </si>
-  <si>
     <t>CV1F4MENW</t>
   </si>
   <si>
     <t>CV1F5MJNW</t>
   </si>
   <si>
-    <t>4D 1.5T L4 EX-L Continuously Variable Transmission w/ Premium Color</t>
-  </si>
-  <si>
     <t>CV2F3MJW</t>
   </si>
   <si>
@@ -794,12 +391,6 @@
     <t>CV3F4MJW</t>
   </si>
   <si>
-    <t>4D 2.0 L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 2.0 L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>CV3F5MJNW</t>
   </si>
   <si>
@@ -812,39 +403,15 @@
     <t>RU5H3MEXW</t>
   </si>
   <si>
-    <t>2WD 5D 1.8 L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.8 L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU5H1MEXW</t>
   </si>
   <si>
-    <t>2WD 5D 1.8 L4 Sport Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.8 L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU5H5MJXW</t>
   </si>
   <si>
-    <t>2WD 5D 1.8 L4 EX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.8 L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU5H7MJXW</t>
   </si>
   <si>
-    <t>2WD 5D 1.8 L4 EX-L Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 1.8 L4 EX-L Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>RU6H3MEW</t>
   </si>
   <si>
@@ -860,63 +427,27 @@
     <t>RU6H9MKNW</t>
   </si>
   <si>
-    <t>AWD 5D 1.8 L4 Touring Continuously Variable Transmission w/ Navi</t>
-  </si>
-  <si>
-    <t>AWD 5D 1.8 L4 Touring Continuously Variable Transmission w/Navi and Premium Color</t>
-  </si>
-  <si>
     <t>PASSPORT</t>
   </si>
   <si>
     <t>YF7H2MEW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5L V6 Sport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5L V6 Sport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF7H5MJNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5L V6 EX-L 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5L V6 EX-L 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF7H9MKNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5L V6 Touring 9-Speed Automatic</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5L V6 Touring 9-Speed Automatic w/Premium Color</t>
-  </si>
-  <si>
     <t>YF8H2MEW</t>
   </si>
   <si>
-    <t>AWD 5D 3.5L V6 Sport 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>AWD 5D 3.5L V6 Sport 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF8H5MJNW</t>
   </si>
   <si>
     <t>YF8H9MKNW</t>
   </si>
   <si>
-    <t>AWD 5D 3.5L V6 Touring 9-Speed Automatic</t>
-  </si>
-  <si>
-    <t>AWD 5D 3.5L V6 Touring 9-Speed Automatic w/Premium Color</t>
-  </si>
-  <si>
     <t>YF8H0MKNW</t>
   </si>
   <si>
@@ -926,48 +457,21 @@
     <t>FK7H3MEW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 LX Continuously Variable Transmission PZEV</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FK7G4MEW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 Sport 6-Speed Manual Transmission</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 Sport 6-Speed Manual Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FK7H4MEW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 Sport Continuously Variable Transmission PZEV</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 Sport Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FK7H6MJW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 EX Continuously Variable Transmission PZEV</t>
-  </si>
-  <si>
-    <t>5D 1.5T L4 EX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>FK7G9MKNW</t>
   </si>
   <si>
     <t>FK7H9MKNW</t>
   </si>
   <si>
-    <t>5D 1.5T L4 Sport Touring Continuously Variable Transmission PZEV</t>
-  </si>
-  <si>
     <t>RL6H2MEW</t>
   </si>
   <si>
@@ -989,12 +493,6 @@
     <t>ZC5F1MEW</t>
   </si>
   <si>
-    <t>4D Clarity PHEV</t>
-  </si>
-  <si>
-    <t>4D Clarity PHEV w/Premium Color</t>
-  </si>
-  <si>
     <t>ZC5F3MGW</t>
   </si>
   <si>
@@ -1004,75 +502,27 @@
     <t>YF5H1MEW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 LX 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 LX 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF5H3MEXW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 EX 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 EX 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF5H5MJNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 EX-L 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 EX-L 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF5H2MJNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 SE 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 SE 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF5H9MKNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 Touring 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 Touring 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF5H6MKNW</t>
   </si>
   <si>
-    <t>2WD 5D 3.5 V6 Touring - 7 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>2WD 5D 3.5 V6 Touring - 7 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H1MEW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 LX 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 LX 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H3MEXW</t>
   </si>
   <si>
-    <t>4WD 5D 3.5 V6 EX 9-Speed Automatic Transmission</t>
-  </si>
-  <si>
-    <t>4WD 5D 3.5 V6 EX 9-Speed Automatic Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>YF6H5MJNW</t>
   </si>
   <si>
@@ -1094,16 +544,13 @@
     <t>ZE4F1MEW</t>
   </si>
   <si>
-    <t>4D 1.5 L4 LX Continuously Variable Transmission</t>
-  </si>
-  <si>
-    <t>4D 1.5 L4 LX Continuously Variable Transmission w/Premium Color</t>
-  </si>
-  <si>
     <t>ZE4F5MEW</t>
   </si>
   <si>
     <t>ZE4F9MKNW</t>
+  </si>
+  <si>
+    <t>Trim</t>
   </si>
 </sst>
 </file>
@@ -1946,9 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1957,9 +1406,10 @@
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1978,8 +1428,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1998,8 +1451,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -2016,10 +1472,13 @@
         <v>37622.75</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -2027,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>42470</v>
@@ -2036,10 +1495,13 @@
         <v>39582.080000000002</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -2047,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>42865</v>
@@ -2056,10 +1518,13 @@
         <v>39949.75</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -2067,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>45430</v>
@@ -2076,10 +1541,13 @@
         <v>41635.35</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -2087,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>45825</v>
@@ -2096,18 +1564,21 @@
         <v>42003.02</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>2900</v>
@@ -2116,18 +1587,21 @@
         <v>2668</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>2900</v>
@@ -2136,18 +1610,21 @@
         <v>2668</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>2900</v>
@@ -2156,18 +1633,21 @@
         <v>2668</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>2900</v>
@@ -2176,18 +1656,21 @@
         <v>2668</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>1070</v>
@@ -2196,18 +1679,21 @@
         <v>984.4</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>616</v>
@@ -2216,18 +1702,21 @@
         <v>566.72</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>731</v>
@@ -2236,18 +1725,21 @@
         <v>672.52</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>288</v>
@@ -2256,18 +1748,21 @@
         <v>264.95999999999998</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>27300</v>
@@ -2276,18 +1771,21 @@
         <v>25883.63</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
         <v>27695</v>
@@ -2296,18 +1794,21 @@
         <v>26257.4</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>27500</v>
@@ -2316,18 +1817,21 @@
         <v>26072.880000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>27895</v>
@@ -2336,18 +1840,21 @@
         <v>26446.65</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
         <v>26120</v>
@@ -2356,18 +1863,21 @@
         <v>24901.57</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>26515</v>
@@ -2376,18 +1886,21 @@
         <v>25271.27</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>28580</v>
@@ -2396,18 +1909,21 @@
         <v>26800.45</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
         <v>28975</v>
@@ -2416,18 +1932,21 @@
         <v>27170.15</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>30070</v>
@@ -2436,18 +1955,21 @@
         <v>28195.02</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>30465</v>
@@ -2456,18 +1978,21 @@
         <v>28564.720000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1">
         <v>32440</v>
@@ -2476,18 +2001,21 @@
         <v>30413.22</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>32835</v>
@@ -2496,18 +2024,21 @@
         <v>30782.92</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>33260</v>
@@ -2516,18 +2047,21 @@
         <v>31180.7</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
         <v>33655</v>
@@ -2536,18 +2070,21 @@
         <v>31550.400000000001</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
         <v>38050</v>
@@ -2556,18 +2093,21 @@
         <v>35076.03</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>38445</v>
@@ -2576,18 +2116,21 @@
         <v>35445.730000000003</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1">
         <v>27320</v>
@@ -2596,18 +2139,21 @@
         <v>26043.25</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1">
         <v>27715</v>
@@ -2616,18 +2162,21 @@
         <v>26412.95</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>30670</v>
@@ -2636,18 +2185,21 @@
         <v>28756.59</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>31065</v>
@@ -2656,18 +2208,21 @@
         <v>29126.29</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
         <v>33640</v>
@@ -2676,18 +2231,21 @@
         <v>31536.36</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>34035</v>
@@ -2696,18 +2254,21 @@
         <v>31906.06</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>37190</v>
@@ -2716,18 +2277,21 @@
         <v>34284.400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
         <v>37585</v>
@@ -2736,18 +2300,21 @@
         <v>34654.1</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>39580</v>
@@ -2756,18 +2323,21 @@
         <v>36892.06</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1">
         <v>39975</v>
@@ -2776,18 +2346,21 @@
         <v>37259.730000000003</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1">
         <v>41810</v>
@@ -2796,18 +2369,21 @@
         <v>38967.75</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>42205</v>
@@ -2816,18 +2392,21 @@
         <v>39335.42</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>42410</v>
@@ -2836,18 +2415,21 @@
         <v>39526.230000000003</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1">
         <v>42805</v>
@@ -2856,18 +2438,21 @@
         <v>39893.9</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D46" s="1">
         <v>44310</v>
@@ -2876,18 +2461,21 @@
         <v>41294.75</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1">
         <v>44705</v>
@@ -2896,18 +2484,21 @@
         <v>41662.42</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1">
         <v>46370</v>
@@ -2916,18 +2507,21 @@
         <v>42495.78</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1">
         <v>46765</v>
@@ -2936,18 +2530,21 @@
         <v>42863.45</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2022</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D50" s="1">
         <v>46670</v>
@@ -2956,18 +2553,21 @@
         <v>42770.38</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2022</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1">
         <v>47065</v>
@@ -2976,18 +2576,21 @@
         <v>43138.05</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2022</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D52" s="1">
         <v>49870</v>
@@ -2996,18 +2599,21 @@
         <v>45699.5</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D53" s="1">
         <v>50265</v>
@@ -3016,18 +2622,21 @@
         <v>46067.17</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D54" s="1">
         <v>51370</v>
@@ -3036,18 +2645,21 @@
         <v>47072.53</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2022</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1">
         <v>51765</v>
@@ -3056,18 +2668,21 @@
         <v>47440.2</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2022</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1">
         <v>37640</v>
@@ -3076,18 +2691,21 @@
         <v>35086.31</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2022</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1">
         <v>38035</v>
@@ -3096,18 +2714,21 @@
         <v>35453.980000000003</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2022</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1">
         <v>40620</v>
@@ -3116,18 +2737,21 @@
         <v>37860.1</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2022</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1">
         <v>41015</v>
@@ -3136,18 +2760,21 @@
         <v>38227.769999999997</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D60" s="1">
         <v>43570</v>
@@ -3156,18 +2783,21 @@
         <v>39932.800000000003</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2022</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D61" s="1">
         <v>43965</v>
@@ -3176,18 +2806,21 @@
         <v>40300.47</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1">
         <v>45070</v>
@@ -3196,18 +2829,21 @@
         <v>41305.82</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2022</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1">
         <v>45465</v>
@@ -3216,18 +2852,21 @@
         <v>41673.49</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2022</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D64" s="1">
         <v>275</v>
@@ -3236,18 +2875,21 @@
         <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1">
         <v>1335</v>
@@ -3256,18 +2898,21 @@
         <v>1228.2</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D66" s="1">
         <v>1495</v>
@@ -3276,18 +2921,21 @@
         <v>1375.4</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="D67" s="1">
         <v>2800</v>
@@ -3296,18 +2944,21 @@
         <v>2576</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1">
         <v>2800</v>
@@ -3316,18 +2967,21 @@
         <v>2576</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="D69" s="1">
         <v>23350</v>
@@ -3336,18 +2990,21 @@
         <v>22266.19</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="D70" s="1">
         <v>23745</v>
@@ -3356,18 +3013,21 @@
         <v>22639.96</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D71" s="1">
         <v>24550</v>
@@ -3376,18 +3036,21 @@
         <v>23281.439999999999</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D72" s="1">
         <v>24945</v>
@@ -3396,18 +3059,21 @@
         <v>23655.21</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D73" s="1">
         <v>24550</v>
@@ -3416,18 +3082,21 @@
         <v>23281.439999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D74" s="1">
         <v>24945</v>
@@ -3436,18 +3105,21 @@
         <v>23655.21</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D75" s="1">
         <v>27050</v>
@@ -3456,18 +3128,21 @@
         <v>25647.06</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D76" s="1">
         <v>27445</v>
@@ -3476,18 +3151,21 @@
         <v>26020.83</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D77" s="1">
         <v>29850</v>
@@ -3496,18 +3174,21 @@
         <v>27835.38</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2022</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D78" s="1">
         <v>30245</v>
@@ -3516,18 +3197,21 @@
         <v>28209.15</v>
       </c>
       <c r="F78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2022</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="D79" s="1">
         <v>29850</v>
@@ -3536,18 +3220,21 @@
         <v>27835.38</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="D80" s="1">
         <v>30245</v>
@@ -3556,18 +3243,21 @@
         <v>28209.15</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2022</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D81" s="1">
         <v>26400</v>
@@ -3576,18 +3266,21 @@
         <v>25167.96</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="D82" s="1">
         <v>26795</v>
@@ -3596,18 +3289,21 @@
         <v>25537.66</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2022</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1">
         <v>27600</v>
@@ -3616,18 +3312,21 @@
         <v>26309.64</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D84" s="1">
         <v>27995</v>
@@ -3636,18 +3335,21 @@
         <v>26679.34</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D85" s="1">
         <v>28910</v>
@@ -3656,18 +3358,21 @@
         <v>27109.31</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2022</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D86" s="1">
         <v>29305</v>
@@ -3676,18 +3381,21 @@
         <v>27479.01</v>
       </c>
       <c r="F86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2022</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="D87" s="1">
         <v>31500</v>
@@ -3696,18 +3404,21 @@
         <v>29533.43</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2022</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="D88" s="1">
         <v>31895</v>
@@ -3716,18 +3427,21 @@
         <v>29903.13</v>
       </c>
       <c r="F88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2022</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D89" s="1">
         <v>27900</v>
@@ -3736,18 +3450,21 @@
         <v>26595.06</v>
       </c>
       <c r="F89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2022</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D90" s="1">
         <v>28295</v>
@@ -3756,18 +3473,21 @@
         <v>26964.76</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2022</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
         <v>29100</v>
@@ -3776,18 +3496,21 @@
         <v>27736.74</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D92" s="1">
         <v>29495</v>
@@ -3796,18 +3519,21 @@
         <v>28106.44</v>
       </c>
       <c r="F92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2022</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="D93" s="1">
         <v>30410</v>
@@ -3816,18 +3542,21 @@
         <v>28513.24</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2022</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="D94" s="1">
         <v>30805</v>
@@ -3836,18 +3565,21 @@
         <v>28882.94</v>
       </c>
       <c r="F94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2022</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="D95" s="1">
         <v>33000</v>
@@ -3856,18 +3588,21 @@
         <v>30937.35</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2022</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="D96" s="1">
         <v>33395</v>
@@ -3876,18 +3611,21 @@
         <v>31307.05</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D97" s="1">
         <v>36200</v>
@@ -3896,18 +3634,21 @@
         <v>33373.1</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D98" s="1">
         <v>36595</v>
@@ -3916,18 +3657,21 @@
         <v>33742.800000000003</v>
       </c>
       <c r="F98" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2022</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D99" s="1">
         <v>31610</v>
@@ -3936,18 +3680,21 @@
         <v>29636.38</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2022</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D100" s="1">
         <v>32005</v>
@@ -3956,18 +3703,21 @@
         <v>30006.080000000002</v>
       </c>
       <c r="F100" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2022</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="D101" s="1">
         <v>34200</v>
@@ -3976,18 +3726,21 @@
         <v>32060.49</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2022</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="D102" s="1">
         <v>34595</v>
@@ -3996,18 +3749,21 @@
         <v>32430.19</v>
       </c>
       <c r="F102" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2022</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="D103" s="1">
         <v>37400</v>
@@ -4016,18 +3772,21 @@
         <v>34477.699999999997</v>
       </c>
       <c r="F103" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2022</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="D104" s="1">
         <v>37795</v>
@@ -4036,18 +3795,21 @@
         <v>34847.4</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2022</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D105" s="1">
         <v>41810</v>
@@ -4056,18 +3818,21 @@
         <v>38967.75</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D106" s="1">
         <v>42205</v>
@@ -4076,18 +3841,21 @@
         <v>39335.42</v>
       </c>
       <c r="F106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2022</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D107" s="1">
         <v>42410</v>
@@ -4096,18 +3864,21 @@
         <v>39526.230000000003</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2022</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D108" s="1">
         <v>42805</v>
@@ -4116,18 +3887,21 @@
         <v>39893.9</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2022</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D109" s="1">
         <v>46370</v>
@@ -4136,18 +3910,21 @@
         <v>42495.78</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2022</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1">
         <v>46765</v>
@@ -4156,18 +3933,21 @@
         <v>42863.45</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2022</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1">
         <v>46670</v>
@@ -4176,18 +3956,21 @@
         <v>42770.38</v>
       </c>
       <c r="F111" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2022</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1">
         <v>47065</v>
@@ -4196,18 +3979,21 @@
         <v>43138.05</v>
       </c>
       <c r="F112" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2022</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D113" s="1">
         <v>49870</v>
@@ -4216,18 +4002,21 @@
         <v>45699.5</v>
       </c>
       <c r="F113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
       <c r="B114" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D114" s="1">
         <v>50265</v>
@@ -4236,18 +4025,21 @@
         <v>46067.17</v>
       </c>
       <c r="F114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2022</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D115" s="1">
         <v>51370</v>
@@ -4256,18 +4048,21 @@
         <v>47072.53</v>
       </c>
       <c r="F115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D116" s="1">
         <v>51765</v>
@@ -4276,18 +4071,21 @@
         <v>47440.2</v>
       </c>
       <c r="F116" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2022</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D117" s="1">
         <v>23370</v>
@@ -4296,18 +4094,21 @@
         <v>22285.22</v>
       </c>
       <c r="F117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
       <c r="B118" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D118" s="1">
         <v>23765</v>
@@ -4316,18 +4117,21 @@
         <v>22658.99</v>
       </c>
       <c r="F118" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2022</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D119" s="1">
         <v>25320</v>
@@ -4336,18 +4140,21 @@
         <v>24010.05</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D120" s="1">
         <v>25715</v>
@@ -4356,18 +4163,21 @@
         <v>24383.82</v>
       </c>
       <c r="F120" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
       <c r="B121" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D121" s="1">
         <v>26570</v>
@@ -4376,18 +4186,21 @@
         <v>25192.86</v>
       </c>
       <c r="F121" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2022</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="D122" s="1">
         <v>26965</v>
@@ -4396,18 +4209,21 @@
         <v>25566.63</v>
       </c>
       <c r="F122" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="D123" s="1">
         <v>28170</v>
@@ -4416,18 +4232,21 @@
         <v>26706.86</v>
       </c>
       <c r="F123" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2022</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="D124" s="1">
         <v>28565</v>
@@ -4436,18 +4255,21 @@
         <v>27080.63</v>
       </c>
       <c r="F124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2022</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="D125" s="1">
         <v>22350</v>
@@ -4456,18 +4278,21 @@
         <v>21314.79</v>
       </c>
       <c r="F125" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="D126" s="1">
         <v>22745</v>
@@ -4476,18 +4301,21 @@
         <v>21688.560000000001</v>
       </c>
       <c r="F126" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2022</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="D127" s="1">
         <v>23750</v>
@@ -4496,18 +4324,21 @@
         <v>22524.44</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2022</v>
       </c>
       <c r="B128" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="D128" s="1">
         <v>24145</v>
@@ -4516,18 +4347,21 @@
         <v>22898.21</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2022</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="D129" s="1">
         <v>25350</v>
@@ -4536,18 +4370,21 @@
         <v>24038.44</v>
       </c>
       <c r="F129" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2022</v>
       </c>
       <c r="B130" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="D130" s="1">
         <v>25745</v>
@@ -4556,18 +4393,21 @@
         <v>24412.21</v>
       </c>
       <c r="F130" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2022</v>
       </c>
       <c r="B131" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C131" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="D131" s="1">
         <v>28950</v>
@@ -4576,18 +4416,21 @@
         <v>26997.66</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2022</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="D132" s="1">
         <v>29345</v>
@@ -4596,18 +4439,21 @@
         <v>27371.43</v>
       </c>
       <c r="F132" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2022</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="D133" s="1">
         <v>25760</v>
@@ -4616,18 +4462,21 @@
         <v>24426.400000000001</v>
       </c>
       <c r="F133" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="D134" s="1">
         <v>26155</v>
@@ -4636,18 +4485,21 @@
         <v>24800.17</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2022</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="D135" s="1">
         <v>29790</v>
@@ -4656,18 +4508,21 @@
         <v>27779.53</v>
       </c>
       <c r="F135" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="D136" s="1">
         <v>30185</v>
@@ -4676,18 +4531,21 @@
         <v>28153.3</v>
       </c>
       <c r="F136" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2022</v>
       </c>
       <c r="B137" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C137" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D137" s="1">
         <v>33040</v>
@@ -4696,18 +4554,21 @@
         <v>31485.26</v>
       </c>
       <c r="F137" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2022</v>
       </c>
       <c r="B138" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D138" s="1">
         <v>33435</v>
@@ -4716,18 +4577,21 @@
         <v>31852.93</v>
       </c>
       <c r="F138" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2022</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="D139" s="1">
         <v>36440</v>
@@ -4736,18 +4600,21 @@
         <v>33969.35</v>
       </c>
       <c r="F139" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2022</v>
       </c>
       <c r="B140" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="D140" s="1">
         <v>36835</v>
@@ -4756,18 +4623,21 @@
         <v>34337.019999999997</v>
       </c>
       <c r="F140" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2022</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="D141" s="1">
         <v>39710</v>
@@ -4776,18 +4646,21 @@
         <v>37013.07</v>
       </c>
       <c r="F141" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2022</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="D142" s="1">
         <v>40105</v>
@@ -4796,18 +4669,21 @@
         <v>37380.74</v>
       </c>
       <c r="F142" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2022</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C143" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="D143" s="1">
         <v>43750</v>
@@ -4816,18 +4692,21 @@
         <v>40097.56</v>
       </c>
       <c r="F143" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="D144" s="1">
         <v>44145</v>
@@ -4836,18 +4715,21 @@
         <v>40465.230000000003</v>
       </c>
       <c r="F144" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2022</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C145" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="D145" s="1">
         <v>48770</v>
@@ -4856,18 +4738,21 @@
         <v>44692.62</v>
       </c>
       <c r="F145" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2022</v>
       </c>
       <c r="B146" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C146" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="D146" s="1">
         <v>49165</v>
@@ -4876,18 +4761,21 @@
         <v>45060.29</v>
       </c>
       <c r="F146" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2021</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C147" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="D147" s="1">
         <v>36490</v>
@@ -4896,18 +4784,21 @@
         <v>34015.89</v>
       </c>
       <c r="F147" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2021</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="D148" s="1">
         <v>36885</v>
@@ -4916,18 +4807,21 @@
         <v>34383.56</v>
       </c>
       <c r="F148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2021</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D149" s="1">
         <v>39470</v>
@@ -4936,18 +4830,21 @@
         <v>36789.68</v>
       </c>
       <c r="F149" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2021</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C150" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D150" s="1">
         <v>39865</v>
@@ -4956,18 +4853,21 @@
         <v>37157.35</v>
       </c>
       <c r="F150" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2021</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C151" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="D151" s="1">
         <v>42420</v>
@@ -4976,18 +4876,21 @@
         <v>38880.15</v>
       </c>
       <c r="F151" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2021</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C152" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="D152" s="1">
         <v>42815</v>
@@ -4996,18 +4899,21 @@
         <v>39247.82</v>
       </c>
       <c r="F152" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2021</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C153" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="D153" s="1">
         <v>43920</v>
@@ -5016,18 +4922,21 @@
         <v>40253.17</v>
       </c>
       <c r="F153" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="D154" s="1">
         <v>44315</v>
@@ -5036,18 +4945,21 @@
         <v>40620.839999999997</v>
       </c>
       <c r="F154" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2021</v>
       </c>
       <c r="B155" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D155" s="1">
         <v>270</v>
@@ -5056,18 +4968,21 @@
         <v>248.4</v>
       </c>
       <c r="F155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2021</v>
       </c>
       <c r="B156" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C156" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D156" s="1">
         <v>1315</v>
@@ -5076,18 +4991,21 @@
         <v>1209.8</v>
       </c>
       <c r="F156" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2021</v>
       </c>
       <c r="B157" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D157" s="1">
         <v>1465</v>
@@ -5096,18 +5014,21 @@
         <v>1347.8</v>
       </c>
       <c r="F157" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2021</v>
       </c>
       <c r="B158" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="D158" s="1">
         <v>2800</v>
@@ -5116,18 +5037,21 @@
         <v>2576</v>
       </c>
       <c r="F158" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2021</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="D159" s="1">
         <v>26850</v>
@@ -5136,18 +5060,21 @@
         <v>25596.09</v>
       </c>
       <c r="F159" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2021</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C160" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="D160" s="1">
         <v>27245</v>
@@ -5156,18 +5083,21 @@
         <v>25965.79</v>
       </c>
       <c r="F160" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2021</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C161" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="D161" s="1">
         <v>28050</v>
@@ -5176,18 +5106,21 @@
         <v>26737.77</v>
       </c>
       <c r="F161" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2021</v>
       </c>
       <c r="B162" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C162" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="D162" s="1">
         <v>28445</v>
@@ -5196,18 +5129,21 @@
         <v>27107.47</v>
       </c>
       <c r="F162" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2021</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C163" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="D163" s="1">
         <v>29360</v>
@@ -5216,18 +5152,21 @@
         <v>27530.49</v>
       </c>
       <c r="F163" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2021</v>
       </c>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="D164" s="1">
         <v>29755</v>
@@ -5236,18 +5175,21 @@
         <v>27900.19</v>
       </c>
       <c r="F164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2021</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="D165" s="1">
         <v>31950</v>
@@ -5256,18 +5198,21 @@
         <v>29954.6</v>
       </c>
       <c r="F165" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2021</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="D166" s="1">
         <v>32345</v>
@@ -5276,18 +5221,21 @@
         <v>30324.3</v>
       </c>
       <c r="F166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2021</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="D167" s="1">
         <v>35150</v>
@@ -5296,18 +5244,21 @@
         <v>32406.58</v>
       </c>
       <c r="F167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2021</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="D168" s="1">
         <v>35545</v>
@@ -5316,18 +5267,21 @@
         <v>32776.28</v>
       </c>
       <c r="F168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2021</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C169" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="D169" s="1">
         <v>30560</v>
@@ -5336,18 +5290,21 @@
         <v>28653.63</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2021</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C170" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="D170" s="1">
         <v>30955</v>
@@ -5356,18 +5313,21 @@
         <v>29023.33</v>
       </c>
       <c r="F170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2021</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="D171" s="1">
         <v>33150</v>
@@ -5376,18 +5336,21 @@
         <v>31077.74</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2021</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C172" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="D172" s="1">
         <v>33545</v>
@@ -5396,18 +5359,21 @@
         <v>31447.439999999999</v>
       </c>
       <c r="F172" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2021</v>
       </c>
       <c r="B173" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C173" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="D173" s="1">
         <v>36350</v>
@@ -5416,18 +5382,21 @@
         <v>33511.18</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2021</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C174" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="D174" s="1">
         <v>36745</v>
@@ -5436,18 +5405,21 @@
         <v>33880.879999999997</v>
       </c>
       <c r="F174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2021</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C175" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="D175" s="1">
         <v>21250</v>
@@ -5456,18 +5428,21 @@
         <v>20268.25</v>
       </c>
       <c r="F175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2021</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="D176" s="1">
         <v>21645</v>
@@ -5476,18 +5451,21 @@
         <v>20642.02</v>
       </c>
       <c r="F176" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2021</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="D177" s="1">
         <v>23050</v>
@@ -5496,18 +5474,21 @@
         <v>21862.06</v>
       </c>
       <c r="F177" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2021</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C178" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="D178" s="1">
         <v>23445</v>
@@ -5516,18 +5497,21 @@
         <v>22235.83</v>
       </c>
       <c r="F178" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2021</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C179" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="D179" s="1">
         <v>24400</v>
@@ -5536,18 +5520,21 @@
         <v>23139.5</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2021</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C180" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="D180" s="1">
         <v>24795</v>
@@ -5556,18 +5543,21 @@
         <v>23513.27</v>
       </c>
       <c r="F180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2021</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C181" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="D181" s="1">
         <v>25600</v>
@@ -5576,18 +5566,21 @@
         <v>24275</v>
       </c>
       <c r="F181" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2021</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C182" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="D182" s="1">
         <v>251015</v>
@@ -5596,18 +5589,21 @@
         <v>24648.77</v>
       </c>
       <c r="F182" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2021</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C183" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="D183" s="1">
         <v>28300</v>
@@ -5616,18 +5612,21 @@
         <v>26392.639999999999</v>
       </c>
       <c r="F183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2021</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C184" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="D184" s="1">
         <v>28695</v>
@@ -5636,18 +5635,21 @@
         <v>26766.41</v>
       </c>
       <c r="F184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2021</v>
       </c>
       <c r="B185" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C185" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D185" s="1">
         <v>24970</v>
@@ -5656,18 +5658,21 @@
         <v>23807.46</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2021</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D186" s="1">
         <v>25365</v>
@@ -5676,18 +5681,21 @@
         <v>24177.16</v>
       </c>
       <c r="F186" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2021</v>
       </c>
       <c r="B187" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C187" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="D187" s="1">
         <v>27430</v>
@@ -5696,18 +5704,21 @@
         <v>25724.11</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2021</v>
       </c>
       <c r="B188" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C188" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="D188" s="1">
         <v>27825</v>
@@ -5716,18 +5727,21 @@
         <v>26093.81</v>
       </c>
       <c r="F188" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
       <c r="B189" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="D189" s="1">
         <v>28920</v>
@@ -5736,18 +5750,21 @@
         <v>27118.67</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2021</v>
       </c>
       <c r="B190" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C190" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="D190" s="1">
         <v>29315</v>
@@ -5756,18 +5773,21 @@
         <v>27488.37</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2021</v>
       </c>
       <c r="B191" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C191" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="D191" s="1">
         <v>31290</v>
@@ -5776,18 +5796,21 @@
         <v>29336.880000000001</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2021</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C192" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="D192" s="1">
         <v>31685</v>
@@ -5796,18 +5819,21 @@
         <v>29706.58</v>
       </c>
       <c r="F192" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="D193" s="1">
         <v>32110</v>
@@ -5816,18 +5842,21 @@
         <v>30104.35</v>
       </c>
       <c r="F193" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2021</v>
       </c>
       <c r="B194" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C194" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="D194" s="1">
         <v>32505</v>
@@ -5836,18 +5865,21 @@
         <v>30474.05</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2021</v>
       </c>
       <c r="B195" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D195" s="1">
         <v>36900</v>
@@ -5856,18 +5888,21 @@
         <v>34017.449999999997</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2021</v>
       </c>
       <c r="B196" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="C196" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D196" s="1">
         <v>37295</v>
@@ -5876,18 +5911,21 @@
         <v>34387.15</v>
       </c>
       <c r="F196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2021</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="D197" s="1">
         <v>26570</v>
@@ -5896,18 +5934,21 @@
         <v>25329.7</v>
       </c>
       <c r="F197" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2021</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="D198" s="1">
         <v>26965</v>
@@ -5916,18 +5957,21 @@
         <v>25699.4</v>
       </c>
       <c r="F198" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2021</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="D199" s="1">
         <v>30520</v>
@@ -5936,18 +5980,21 @@
         <v>28616.19</v>
       </c>
       <c r="F199" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2021</v>
       </c>
       <c r="B200" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C200" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="D200" s="1">
         <v>30915</v>
@@ -5956,18 +6003,21 @@
         <v>28985.89</v>
       </c>
       <c r="F200" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C201" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="D201" s="1">
         <v>32890</v>
@@ -5976,18 +6026,21 @@
         <v>30834.400000000001</v>
       </c>
       <c r="F201" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2021</v>
       </c>
       <c r="B202" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C202" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="D202" s="1">
         <v>33285</v>
@@ -5996,18 +6049,21 @@
         <v>31204.1</v>
       </c>
       <c r="F202" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2021</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="D203" s="1">
         <v>36440</v>
@@ -6016,18 +6072,21 @@
         <v>33594.019999999997</v>
       </c>
       <c r="F203" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2021</v>
       </c>
       <c r="B204" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C204" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="D204" s="1">
         <v>36835</v>
@@ -6036,18 +6095,21 @@
         <v>33963.72</v>
       </c>
       <c r="F204" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2021</v>
       </c>
       <c r="B205" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C205" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="D205" s="1">
         <v>21220</v>
@@ -6056,18 +6118,21 @@
         <v>20239.71</v>
       </c>
       <c r="F205" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2021</v>
       </c>
       <c r="B206" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C206" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="D206" s="1">
         <v>21615</v>
@@ -6076,18 +6141,21 @@
         <v>20613.48</v>
       </c>
       <c r="F206" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2021</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="D207" s="1">
         <v>23170</v>
@@ -6096,18 +6164,21 @@
         <v>21975.61</v>
       </c>
       <c r="F207" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2021</v>
       </c>
       <c r="B208" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C208" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="D208" s="1">
         <v>23565</v>
@@ -6116,18 +6187,21 @@
         <v>22349.38</v>
       </c>
       <c r="F208" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2021</v>
       </c>
       <c r="B209" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C209" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="D209" s="1">
         <v>24420</v>
@@ -6136,18 +6210,21 @@
         <v>23158.43</v>
       </c>
       <c r="F209" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2021</v>
       </c>
       <c r="B210" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C210" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="D210" s="1">
         <v>24815</v>
@@ -6156,18 +6233,21 @@
         <v>23532.2</v>
       </c>
       <c r="F210" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2021</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C211" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="D211" s="1">
         <v>26020</v>
@@ -6176,18 +6256,21 @@
         <v>24672.43</v>
       </c>
       <c r="F211" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2021</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C212" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="D212" s="1">
         <v>26415</v>
@@ -6196,18 +6279,21 @@
         <v>25046.2</v>
       </c>
       <c r="F212" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2021</v>
       </c>
       <c r="B213" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C213" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="D213" s="1">
         <v>22720</v>
@@ -6216,18 +6302,21 @@
         <v>21666.81</v>
       </c>
       <c r="F213" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2021</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C214" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="D214" s="1">
         <v>23115</v>
@@ -6236,18 +6325,21 @@
         <v>22040.58</v>
       </c>
       <c r="F214" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2021</v>
       </c>
       <c r="B215" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C215" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="D215" s="1">
         <v>24670</v>
@@ -6256,18 +6348,21 @@
         <v>23394.99</v>
       </c>
       <c r="F215" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2021</v>
       </c>
       <c r="B216" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C216" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="D216" s="1">
         <v>25065</v>
@@ -6276,18 +6371,21 @@
         <v>23768.76</v>
       </c>
       <c r="F216" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2021</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C217" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="D217" s="1">
         <v>25920</v>
@@ -6296,18 +6394,21 @@
         <v>24577.8</v>
       </c>
       <c r="F217" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2021</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C218" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="D218" s="1">
         <v>26315</v>
@@ -6316,18 +6417,21 @@
         <v>24951.57</v>
       </c>
       <c r="F218" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2021</v>
       </c>
       <c r="B219" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C219" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="D219" s="1">
         <v>27520</v>
@@ -6336,18 +6440,21 @@
         <v>26091.8</v>
       </c>
       <c r="F219" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2021</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C220" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="D220" s="1">
         <v>27915</v>
@@ -6356,18 +6463,21 @@
         <v>26465.57</v>
       </c>
       <c r="F220" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2021</v>
       </c>
       <c r="B221" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C221" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="D221" s="1">
         <v>29340</v>
@@ -6376,18 +6486,21 @@
         <v>27360.67</v>
       </c>
       <c r="F221" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2021</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C222" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="D222" s="1">
         <v>29735</v>
@@ -6396,18 +6509,21 @@
         <v>27734.44</v>
       </c>
       <c r="F222" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2021</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C223" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="D223" s="1">
         <v>32790</v>
@@ -6416,18 +6532,21 @@
         <v>30571.93</v>
       </c>
       <c r="F223" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2021</v>
       </c>
       <c r="B224" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C224" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="D224" s="1">
         <v>33185</v>
@@ -6436,18 +6555,21 @@
         <v>30939.599999999999</v>
       </c>
       <c r="F224" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2021</v>
       </c>
       <c r="B225" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C225" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="D225" s="1">
         <v>36810</v>
@@ -6456,18 +6578,21 @@
         <v>34313.75</v>
       </c>
       <c r="F225" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2021</v>
       </c>
       <c r="B226" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C226" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="D226" s="1">
         <v>37205</v>
@@ -6476,18 +6601,21 @@
         <v>34681.42</v>
       </c>
       <c r="F226" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2021</v>
       </c>
       <c r="B227" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C227" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="D227" s="1">
         <v>39680</v>
@@ -6496,18 +6624,21 @@
         <v>36372.089999999997</v>
       </c>
       <c r="F227" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2021</v>
       </c>
       <c r="B228" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C228" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="D228" s="1">
         <v>40075</v>
@@ -6516,18 +6647,21 @@
         <v>36739.760000000002</v>
       </c>
       <c r="F228" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2021</v>
       </c>
       <c r="B229" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C229" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="D229" s="1">
         <v>34790</v>
@@ -6536,18 +6670,21 @@
         <v>32433.53</v>
       </c>
       <c r="F229" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2021</v>
       </c>
       <c r="B230" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C230" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="D230" s="1">
         <v>35185</v>
@@ -6556,18 +6693,21 @@
         <v>32801.199999999997</v>
       </c>
       <c r="F230" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2021</v>
       </c>
       <c r="B231" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C231" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="D231" s="1">
         <v>38810</v>
@@ -6578,16 +6718,19 @@
       <c r="F231" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2021</v>
       </c>
       <c r="B232" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C232" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="D232" s="1">
         <v>39205</v>
@@ -6596,18 +6739,21 @@
         <v>36543.019999999997</v>
       </c>
       <c r="F232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2021</v>
       </c>
       <c r="B233" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C233" t="s">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="D233" s="1">
         <v>41680</v>
@@ -6616,18 +6762,21 @@
         <v>38202.79</v>
       </c>
       <c r="F233" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2021</v>
       </c>
       <c r="B234" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C234" t="s">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="D234" s="1">
         <v>42075</v>
@@ -6636,18 +6785,21 @@
         <v>38570.46</v>
       </c>
       <c r="F234" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2021</v>
       </c>
       <c r="B235" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C235" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="D235" s="1">
         <v>44180</v>
@@ -6656,18 +6808,21 @@
         <v>40491.160000000003</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2021</v>
       </c>
       <c r="B236" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="C236" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="D236" s="1">
         <v>44575</v>
@@ -6676,18 +6831,21 @@
         <v>40858.83</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2021</v>
       </c>
       <c r="B237" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C237" t="s">
-        <v>302</v>
+        <v>146</v>
       </c>
       <c r="D237" s="1">
         <v>22200</v>
@@ -6696,18 +6854,21 @@
         <v>21172.080000000002</v>
       </c>
       <c r="F237" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2021</v>
       </c>
       <c r="B238" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C238" t="s">
-        <v>302</v>
+        <v>146</v>
       </c>
       <c r="D238" s="1">
         <v>22595</v>
@@ -6716,18 +6877,21 @@
         <v>21545.85</v>
       </c>
       <c r="F238" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2021</v>
       </c>
       <c r="B239" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C239" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="D239" s="1">
         <v>23300</v>
@@ -6736,18 +6900,21 @@
         <v>22098.63</v>
       </c>
       <c r="F239" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2021</v>
       </c>
       <c r="B240" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C240" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="D240" s="1">
         <v>23695</v>
@@ -6756,18 +6923,21 @@
         <v>22472.400000000001</v>
       </c>
       <c r="F240" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2021</v>
       </c>
       <c r="B241" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C241" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="D241" s="1">
         <v>24100</v>
@@ -6776,18 +6946,21 @@
         <v>22855.63</v>
       </c>
       <c r="F241" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2021</v>
       </c>
       <c r="B242" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C242" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="D242" s="1">
         <v>24495</v>
@@ -6796,18 +6969,21 @@
         <v>23229.4</v>
       </c>
       <c r="F242" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2021</v>
       </c>
       <c r="B243" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C243" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="D243" s="1">
         <v>24700</v>
@@ -6816,18 +6992,21 @@
         <v>23423.38</v>
       </c>
       <c r="F243" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2021</v>
       </c>
       <c r="B244" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C244" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="D244" s="1">
         <v>25095</v>
@@ -6836,18 +7015,21 @@
         <v>23797.15</v>
       </c>
       <c r="F244" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2021</v>
       </c>
       <c r="B245" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C245" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="D245" s="1">
         <v>28600</v>
@@ -6856,18 +7038,21 @@
         <v>26671.88</v>
       </c>
       <c r="F245" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2021</v>
       </c>
       <c r="B246" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C246" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="D246" s="1">
         <v>28995</v>
@@ -6876,18 +7061,21 @@
         <v>27045.65</v>
       </c>
       <c r="F246" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2021</v>
       </c>
       <c r="B247" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C247" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="D247" s="1">
         <v>29400</v>
@@ -6896,18 +7084,21 @@
         <v>27416.52</v>
       </c>
       <c r="F247" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2021</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C248" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="D248" s="1">
         <v>29795</v>
@@ -6916,18 +7107,21 @@
         <v>27790.29</v>
       </c>
       <c r="F248" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2021</v>
       </c>
       <c r="B249" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C249" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="D249" s="1">
         <v>31790</v>
@@ -6936,18 +7130,21 @@
         <v>30296.01</v>
       </c>
       <c r="F249" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2021</v>
       </c>
       <c r="B250" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C250" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="D250" s="1">
         <v>32185</v>
@@ -6956,18 +7153,21 @@
         <v>30663.68</v>
       </c>
       <c r="F250" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2021</v>
       </c>
       <c r="B251" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C251" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="D251" s="1">
         <v>35190</v>
@@ -6976,18 +7176,21 @@
         <v>32805.85</v>
       </c>
       <c r="F251" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2021</v>
       </c>
       <c r="B252" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C252" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="D252" s="1">
         <v>35585</v>
@@ -6996,18 +7199,21 @@
         <v>33173.519999999997</v>
       </c>
       <c r="F252" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2021</v>
       </c>
       <c r="B253" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C253" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="D253" s="1">
         <v>38460</v>
@@ -7016,18 +7222,21 @@
         <v>35849.57</v>
       </c>
       <c r="F253" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2021</v>
       </c>
       <c r="B254" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C254" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="D254" s="1">
         <v>38855</v>
@@ -7036,18 +7245,21 @@
         <v>36217.24</v>
       </c>
       <c r="F254" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2021</v>
       </c>
       <c r="B255" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C255" t="s">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="D255" s="1">
         <v>42500</v>
@@ -7056,18 +7268,21 @@
         <v>38953.379999999997</v>
       </c>
       <c r="F255" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2021</v>
       </c>
       <c r="B256" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C256" t="s">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="D256" s="1">
         <v>42895</v>
@@ -7076,18 +7291,21 @@
         <v>39321.050000000003</v>
       </c>
       <c r="F256" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2021</v>
       </c>
       <c r="B257" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C257" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="D257" s="1">
         <v>47820</v>
@@ -7096,18 +7314,21 @@
         <v>43823.040000000001</v>
       </c>
       <c r="F257" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2021</v>
       </c>
       <c r="B258" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C258" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="D258" s="1">
         <v>48215</v>
@@ -7116,18 +7337,21 @@
         <v>44190.71</v>
       </c>
       <c r="F258" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2021</v>
       </c>
       <c r="B259" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C259" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="D259" s="1">
         <v>33400</v>
@@ -7136,18 +7360,21 @@
         <v>32028.78</v>
       </c>
       <c r="F259" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2021</v>
       </c>
       <c r="B260" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C260" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="D260" s="1">
         <v>33795</v>
@@ -7156,18 +7383,21 @@
         <v>32406.68</v>
       </c>
       <c r="F260" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2021</v>
       </c>
       <c r="B261" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C261" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="D261" s="1">
         <v>36600</v>
@@ -7176,18 +7406,21 @@
         <v>35090.22</v>
       </c>
       <c r="F261" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2021</v>
       </c>
       <c r="B262" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C262" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="D262" s="1">
         <v>361015</v>
@@ -7196,18 +7429,21 @@
         <v>35468.120000000003</v>
       </c>
       <c r="F262" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2021</v>
       </c>
       <c r="B263" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C263" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="D263" s="1">
         <v>32550</v>
@@ -7216,18 +7452,21 @@
         <v>29763.89</v>
       </c>
       <c r="F263" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2021</v>
       </c>
       <c r="B264" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C264" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="D264" s="1">
         <v>32945</v>
@@ -7236,18 +7475,21 @@
         <v>30124.17</v>
       </c>
       <c r="F264" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2021</v>
       </c>
       <c r="B265" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C265" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="D265" s="1">
         <v>35230</v>
@@ -7256,18 +7498,21 @@
         <v>32208.32</v>
       </c>
       <c r="F265" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2021</v>
       </c>
       <c r="B266" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C266" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="D266" s="1">
         <v>35625</v>
@@ -7276,18 +7521,21 @@
         <v>32568.6</v>
       </c>
       <c r="F266" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2021</v>
       </c>
       <c r="B267" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C267" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="D267" s="1">
         <v>38660</v>
@@ -7296,18 +7544,21 @@
         <v>35336.82</v>
       </c>
       <c r="F267" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2021</v>
       </c>
       <c r="B268" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="D268" s="1">
         <v>39055</v>
@@ -7316,18 +7567,21 @@
         <v>35697.1</v>
       </c>
       <c r="F268" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2021</v>
       </c>
       <c r="B269" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C269" t="s">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="D269" s="1">
         <v>39260</v>
@@ -7336,18 +7590,21 @@
         <v>35884.089999999997</v>
       </c>
       <c r="F269" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2021</v>
       </c>
       <c r="B270" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C270" t="s">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="D270" s="1">
         <v>39655</v>
@@ -7356,18 +7613,21 @@
         <v>36244.370000000003</v>
       </c>
       <c r="F270" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2021</v>
       </c>
       <c r="B271" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C271" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="D271" s="1">
         <v>43220</v>
@@ -7376,18 +7636,21 @@
         <v>39496.01</v>
       </c>
       <c r="F271" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2021</v>
       </c>
       <c r="B272" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C272" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="D272" s="1">
         <v>43615</v>
@@ -7396,18 +7659,21 @@
         <v>39856.29</v>
       </c>
       <c r="F272" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2021</v>
       </c>
       <c r="B273" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C273" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="D273" s="1">
         <v>43520</v>
@@ -7416,18 +7682,21 @@
         <v>39769.64</v>
       </c>
       <c r="F273" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2021</v>
       </c>
       <c r="B274" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C274" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="D274" s="1">
         <v>43915</v>
@@ -7436,18 +7705,21 @@
         <v>40129.919999999998</v>
       </c>
       <c r="F274" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2021</v>
       </c>
       <c r="B275" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C275" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="D275" s="1">
         <v>34550</v>
@@ -7456,18 +7728,21 @@
         <v>31588.09</v>
       </c>
       <c r="F275" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2021</v>
       </c>
       <c r="B276" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C276" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="D276" s="1">
         <v>34945</v>
@@ -7476,18 +7751,21 @@
         <v>31948.37</v>
       </c>
       <c r="F276" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2021</v>
       </c>
       <c r="B277" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C277" t="s">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="D277" s="1">
         <v>37230</v>
@@ -7496,18 +7774,21 @@
         <v>34032.519999999997</v>
       </c>
       <c r="F277" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2021</v>
       </c>
       <c r="B278" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C278" t="s">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="D278" s="1">
         <v>37625</v>
@@ -7516,18 +7797,21 @@
         <v>34392.800000000003</v>
       </c>
       <c r="F278" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2021</v>
       </c>
       <c r="B279" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C279" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="D279" s="1">
         <v>40660</v>
@@ -7536,18 +7820,21 @@
         <v>37161.03</v>
       </c>
       <c r="F279" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2021</v>
       </c>
       <c r="B280" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C280" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="D280" s="1">
         <v>41055</v>
@@ -7556,18 +7843,21 @@
         <v>37521.31</v>
       </c>
       <c r="F280" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2021</v>
       </c>
       <c r="B281" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C281" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="D281" s="1">
         <v>41260</v>
@@ -7576,18 +7866,21 @@
         <v>37708.29</v>
       </c>
       <c r="F281" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2021</v>
       </c>
       <c r="B282" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C282" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="D282" s="1">
         <v>41655</v>
@@ -7596,18 +7889,21 @@
         <v>38068.57</v>
       </c>
       <c r="F282" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2021</v>
       </c>
       <c r="B283" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>171</v>
       </c>
       <c r="D283" s="1">
         <v>45220</v>
@@ -7616,18 +7912,21 @@
         <v>41320.21</v>
       </c>
       <c r="F283" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2021</v>
       </c>
       <c r="B284" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C284" t="s">
-        <v>354</v>
+        <v>171</v>
       </c>
       <c r="D284" s="1">
         <v>45615</v>
@@ -7636,18 +7935,21 @@
         <v>41680.49</v>
       </c>
       <c r="F284" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2021</v>
       </c>
       <c r="B285" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
       <c r="D285" s="1">
         <v>45520</v>
@@ -7656,18 +7958,21 @@
         <v>41593.839999999997</v>
       </c>
       <c r="F285" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2021</v>
       </c>
       <c r="B286" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
       <c r="D286" s="1">
         <v>45915</v>
@@ -7676,18 +7981,21 @@
         <v>41954.12</v>
       </c>
       <c r="F286" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2021</v>
       </c>
       <c r="B287" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C287" t="s">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="D287" s="1">
         <v>48720</v>
@@ -7696,18 +8004,21 @@
         <v>44512.56</v>
       </c>
       <c r="F287" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2021</v>
       </c>
       <c r="B288" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C288" t="s">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="D288" s="1">
         <v>49115</v>
@@ -7716,18 +8027,21 @@
         <v>44872.84</v>
       </c>
       <c r="F288" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2021</v>
       </c>
       <c r="B289" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C289" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="D289" s="1">
         <v>50220</v>
@@ -7736,18 +8050,21 @@
         <v>45880.71</v>
       </c>
       <c r="F289" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2021</v>
       </c>
       <c r="B290" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C290" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="D290" s="1">
         <v>50615</v>
@@ -7756,18 +8073,21 @@
         <v>46240.99</v>
       </c>
       <c r="F290" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2021</v>
       </c>
       <c r="B291" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C291" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="D291" s="1">
         <v>23130</v>
@@ -7776,18 +8096,21 @@
         <v>21488.75</v>
       </c>
       <c r="F291" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2021</v>
       </c>
       <c r="B292" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C292" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="D292" s="1">
         <v>23525</v>
@@ -7796,18 +8119,21 @@
         <v>21854.44</v>
       </c>
       <c r="F292" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2021</v>
       </c>
       <c r="B293" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C293" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="D293" s="1">
         <v>25010</v>
@@ -7816,18 +8142,21 @@
         <v>23229.26</v>
       </c>
       <c r="F293" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2021</v>
       </c>
       <c r="B294" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C294" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="D294" s="1">
         <v>25405</v>
@@ -7836,18 +8165,21 @@
         <v>23594.95</v>
       </c>
       <c r="F294" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2021</v>
       </c>
       <c r="B295" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C295" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="D295" s="1">
         <v>29040</v>
@@ -7856,18 +8188,21 @@
         <v>26960.23</v>
       </c>
       <c r="F295" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2021</v>
       </c>
       <c r="B296" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C296" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="D296" s="1">
         <v>29435</v>
@@ -7876,10 +8211,14 @@
         <v>27325.919999999998</v>
       </c>
       <c r="F296" t="s">
-        <v>209</v>
+        <v>8</v>
+      </c>
+      <c r="G296" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>